--- a/country.xlsx
+++ b/country.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="1019">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -345,9 +345,6 @@
     <t>068</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
     <t>BA</t>
   </si>
   <si>
@@ -573,9 +570,6 @@
     <t>156</t>
   </si>
   <si>
-    <t>Hong Kong, Special Administrative Region of China</t>
-  </si>
-  <si>
     <t>HK</t>
   </si>
   <si>
@@ -585,9 +579,6 @@
     <t>344</t>
   </si>
   <si>
-    <t>Macao, Special Administrative Region of China</t>
-  </si>
-  <si>
     <t>MO</t>
   </si>
   <si>
@@ -693,9 +684,6 @@
     <t>188</t>
   </si>
   <si>
-    <t>CÃ´te d'Ivoire</t>
-  </si>
-  <si>
     <t>CI</t>
   </si>
   <si>
@@ -1197,9 +1185,6 @@
     <t>334</t>
   </si>
   <si>
-    <t>Holy See (Vatican City State)</t>
-  </si>
-  <si>
     <t>VA</t>
   </si>
   <si>
@@ -1269,9 +1254,6 @@
     <t>360</t>
   </si>
   <si>
-    <t>Iran, Islamic Republic of</t>
-  </si>
-  <si>
     <t>IR</t>
   </si>
   <si>
@@ -1425,9 +1407,6 @@
     <t>296</t>
   </si>
   <si>
-    <t>Korea, Democratic People's Republic of</t>
-  </si>
-  <si>
     <t>KP</t>
   </si>
   <si>
@@ -1437,9 +1416,6 @@
     <t>408</t>
   </si>
   <si>
-    <t>Korea, Republic of</t>
-  </si>
-  <si>
     <t>KR</t>
   </si>
   <si>
@@ -1473,9 +1449,6 @@
     <t>417</t>
   </si>
   <si>
-    <t>Lao PDR</t>
-  </si>
-  <si>
     <t>LA</t>
   </si>
   <si>
@@ -1581,9 +1554,6 @@
     <t>442</t>
   </si>
   <si>
-    <t>Macedonia, Republic of</t>
-  </si>
-  <si>
     <t>MK</t>
   </si>
   <si>
@@ -1737,9 +1707,6 @@
     <t>484</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
-  </si>
-  <si>
     <t>FM</t>
   </si>
   <si>
@@ -2049,9 +2016,6 @@
     <t>585</t>
   </si>
   <si>
-    <t>Palestinian Territory, Occupied</t>
-  </si>
-  <si>
     <t>PS</t>
   </si>
   <si>
@@ -2181,9 +2145,6 @@
     <t>634</t>
   </si>
   <si>
-    <t>RÃ©union</t>
-  </si>
-  <si>
     <t>RE</t>
   </si>
   <si>
@@ -2205,9 +2166,6 @@
     <t>642</t>
   </si>
   <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
     <t>RU</t>
   </si>
   <si>
@@ -2229,9 +2187,6 @@
     <t>646</t>
   </si>
   <si>
-    <t>Saint-BarthÃ©lemy</t>
-  </si>
-  <si>
     <t>BL</t>
   </si>
   <si>
@@ -2277,9 +2232,6 @@
     <t>662</t>
   </si>
   <si>
-    <t>Saint-Martin (French part)</t>
-  </si>
-  <si>
     <t>MF</t>
   </si>
   <si>
@@ -2541,9 +2493,6 @@
     <t>736</t>
   </si>
   <si>
-    <t>Suriname *</t>
-  </si>
-  <si>
     <t>SR</t>
   </si>
   <si>
@@ -2601,9 +2550,6 @@
     <t>756</t>
   </si>
   <si>
-    <t>Syrian Arab Republic (Syria)</t>
-  </si>
-  <si>
     <t>SY</t>
   </si>
   <si>
@@ -2613,9 +2559,6 @@
     <t>760</t>
   </si>
   <si>
-    <t>Taiwan, Republic of China</t>
-  </si>
-  <si>
     <t>TW</t>
   </si>
   <si>
@@ -2637,9 +2580,6 @@
     <t>762</t>
   </si>
   <si>
-    <t>Tanzania *, United Republic of</t>
-  </si>
-  <si>
     <t>TZ</t>
   </si>
   <si>
@@ -2889,9 +2829,6 @@
     <t>548</t>
   </si>
   <si>
-    <t>Venezuela (Bolivarian Republic of)</t>
-  </si>
-  <si>
     <t>VE</t>
   </si>
   <si>
@@ -2901,9 +2838,6 @@
     <t>862</t>
   </si>
   <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
     <t>VN</t>
   </si>
   <si>
@@ -2995,6 +2929,153 @@
   </si>
   <si>
     <t>ISO Numeric Code</t>
+  </si>
+  <si>
+    <t>World Region</t>
+  </si>
+  <si>
+    <t>Sub Region</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Réunion</t>
+  </si>
+  <si>
+    <t>Tanzania , United Republic of</t>
+  </si>
+  <si>
+    <t>Middle Africa</t>
+  </si>
+  <si>
+    <t>Northern Africa</t>
+  </si>
+  <si>
+    <t>Eastern Africa</t>
+  </si>
+  <si>
+    <t>Southern Africa</t>
+  </si>
+  <si>
+    <t>Western Africa</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>The Americas</t>
+  </si>
+  <si>
+    <t>The Caribbean</t>
+  </si>
+  <si>
+    <t>Bonaire, St. Eustatius and Saba</t>
+  </si>
+  <si>
+    <t>BQ</t>
+  </si>
+  <si>
+    <t>BQ1</t>
+  </si>
+  <si>
+    <t>Curaçao</t>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>Saint-Barthélemy</t>
+  </si>
+  <si>
+    <t>Saint-Martin</t>
+  </si>
+  <si>
+    <t>Sint Maarten</t>
+  </si>
+  <si>
+    <t>SX</t>
+  </si>
+  <si>
+    <t>Central America</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Northern America</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Korea, North</t>
+  </si>
+  <si>
+    <t>Korea, South</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Bosnia</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>XK</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Vatican City State</t>
+  </si>
+  <si>
+    <t>European Union</t>
+  </si>
+  <si>
+    <t>Middle East</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
   </si>
 </sst>
 </file>
@@ -3544,13 +3625,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D248" totalsRowShown="0">
-  <autoFilter ref="A1:D248"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F252" totalsRowShown="0">
+  <autoFilter ref="A1:F252"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="ISO 2 Code"/>
     <tableColumn id="3" name="ISO 3 Code"/>
     <tableColumn id="4" name="ISO Numeric Code" dataDxfId="0"/>
+    <tableColumn id="5" name="World Region"/>
+    <tableColumn id="6" name="Sub Region"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3819,10 +3902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D248"/>
+  <dimension ref="A1:F252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="E249" sqref="E249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3831,23 +3914,31 @@
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>988</v>
+        <v>966</v>
       </c>
       <c r="B1" t="s">
-        <v>989</v>
+        <v>967</v>
       </c>
       <c r="C1" t="s">
-        <v>990</v>
+        <v>968</v>
       </c>
       <c r="D1" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>969</v>
+      </c>
+      <c r="E1" t="s">
+        <v>970</v>
+      </c>
+      <c r="F1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3860,8 +3951,11 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3874,8 +3968,11 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3888,8 +3985,11 @@
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3902,8 +4002,14 @@
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>972</v>
+      </c>
+      <c r="F5" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -3916,8 +4022,11 @@
       <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -3930,8 +4039,11 @@
       <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -3944,8 +4056,14 @@
       <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>972</v>
+      </c>
+      <c r="F8" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -3958,8 +4076,14 @@
       <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>981</v>
+      </c>
+      <c r="F9" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -3972,8 +4096,11 @@
       <c r="D10" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -3986,8 +4113,14 @@
       <c r="D11" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>981</v>
+      </c>
+      <c r="F11" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -4000,8 +4133,14 @@
       <c r="D12" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>981</v>
+      </c>
+      <c r="F12" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -4014,8 +4153,11 @@
       <c r="D13" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4170,14 @@
       <c r="D14" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>981</v>
+      </c>
+      <c r="F14" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -4042,8 +4190,11 @@
       <c r="D15" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -4056,8 +4207,14 @@
       <c r="D16" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -4070,8 +4227,11 @@
       <c r="D17" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -4084,8 +4244,14 @@
       <c r="D18" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>981</v>
+      </c>
+      <c r="F18" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -4098,8 +4264,11 @@
       <c r="D19" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -4112,8 +4281,11 @@
       <c r="D20" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -4126,8 +4298,14 @@
       <c r="D21" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>981</v>
+      </c>
+      <c r="F21" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -4140,8 +4318,11 @@
       <c r="D22" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -4154,8 +4335,14 @@
       <c r="D23" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -4168,8 +4355,14 @@
       <c r="D24" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>981</v>
+      </c>
+      <c r="F24" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -4182,8 +4375,14 @@
       <c r="D25" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>972</v>
+      </c>
+      <c r="F25" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>96</v>
       </c>
@@ -4196,8 +4395,14 @@
       <c r="D26" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>981</v>
+      </c>
+      <c r="F26" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -4210,8 +4415,11 @@
       <c r="D27" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -4224,3091 +4432,4190 @@
       <c r="D28" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>981</v>
+      </c>
+      <c r="F28" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>983</v>
+      </c>
+      <c r="B29" t="s">
+        <v>984</v>
+      </c>
+      <c r="C29" t="s">
+        <v>985</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" t="s">
+        <v>981</v>
+      </c>
+      <c r="F29" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B30" t="s">
         <v>108</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C30" t="s">
         <v>109</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D30" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E30" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B31" t="s">
         <v>112</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C31" t="s">
         <v>113</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D31" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E31" t="s">
+        <v>972</v>
+      </c>
+      <c r="F31" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B32" t="s">
         <v>116</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C32" t="s">
         <v>117</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D32" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E32" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B33" t="s">
         <v>120</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C33" t="s">
         <v>121</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D33" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E33" t="s">
+        <v>981</v>
+      </c>
+      <c r="F33" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B34" t="s">
         <v>124</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C34" t="s">
         <v>125</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D34" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E34" t="s">
+        <v>981</v>
+      </c>
+      <c r="F34" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B35" t="s">
         <v>128</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C35" t="s">
         <v>129</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D35" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E35" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B36" t="s">
         <v>132</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C36" t="s">
         <v>133</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D36" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E36" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B37" t="s">
         <v>136</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C37" t="s">
         <v>137</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D37" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E37" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B38" t="s">
         <v>140</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C38" t="s">
         <v>141</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D38" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E38" t="s">
+        <v>972</v>
+      </c>
+      <c r="F38" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B39" t="s">
         <v>144</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C39" t="s">
         <v>145</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D39" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E39" t="s">
+        <v>972</v>
+      </c>
+      <c r="F39" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B40" t="s">
         <v>148</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C40" t="s">
         <v>149</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D40" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E40" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B41" t="s">
         <v>152</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C41" t="s">
         <v>153</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D41" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E41" t="s">
+        <v>972</v>
+      </c>
+      <c r="F41" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B42" t="s">
         <v>156</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C42" t="s">
         <v>157</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D42" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E42" t="s">
+        <v>981</v>
+      </c>
+      <c r="F42" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B43" t="s">
         <v>160</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C43" t="s">
         <v>161</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D43" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E43" t="s">
+        <v>972</v>
+      </c>
+      <c r="F43" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B44" t="s">
         <v>164</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C44" t="s">
         <v>165</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D44" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E44" t="s">
+        <v>981</v>
+      </c>
+      <c r="F44" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B45" t="s">
         <v>168</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C45" t="s">
         <v>169</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D45" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E45" t="s">
+        <v>972</v>
+      </c>
+      <c r="F45" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B46" t="s">
         <v>172</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C46" t="s">
         <v>173</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D46" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E46" t="s">
+        <v>972</v>
+      </c>
+      <c r="F46" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B47" t="s">
         <v>176</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C47" t="s">
         <v>177</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D47" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E47" t="s">
+        <v>981</v>
+      </c>
+      <c r="F47" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B48" t="s">
         <v>180</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C48" t="s">
         <v>181</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D48" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E48" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>998</v>
+      </c>
+      <c r="B49" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="C49" t="s">
         <v>184</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D49" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E49" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>189</v>
+      </c>
+      <c r="B50" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50" t="s">
+        <v>191</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E50" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" t="s">
+        <v>195</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E51" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>197</v>
+      </c>
+      <c r="B52" t="s">
+        <v>198</v>
+      </c>
+      <c r="C52" t="s">
+        <v>199</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E52" t="s">
+        <v>981</v>
+      </c>
+      <c r="F52" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>201</v>
+      </c>
+      <c r="B53" t="s">
+        <v>202</v>
+      </c>
+      <c r="C53" t="s">
+        <v>203</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E53" t="s">
+        <v>972</v>
+      </c>
+      <c r="F53" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>205</v>
+      </c>
+      <c r="B54" t="s">
+        <v>206</v>
+      </c>
+      <c r="C54" t="s">
+        <v>207</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E54" t="s">
+        <v>972</v>
+      </c>
+      <c r="F54" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>209</v>
+      </c>
+      <c r="B55" t="s">
+        <v>210</v>
+      </c>
+      <c r="C55" t="s">
+        <v>211</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E55" t="s">
+        <v>972</v>
+      </c>
+      <c r="F55" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>213</v>
+      </c>
+      <c r="B56" t="s">
+        <v>214</v>
+      </c>
+      <c r="C56" t="s">
+        <v>215</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>217</v>
+      </c>
+      <c r="B57" t="s">
+        <v>218</v>
+      </c>
+      <c r="C57" t="s">
+        <v>219</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E57" t="s">
+        <v>981</v>
+      </c>
+      <c r="F57" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>980</v>
+      </c>
+      <c r="B58" t="s">
+        <v>221</v>
+      </c>
+      <c r="C58" t="s">
+        <v>222</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E58" t="s">
+        <v>972</v>
+      </c>
+      <c r="F58" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>224</v>
+      </c>
+      <c r="B59" t="s">
+        <v>225</v>
+      </c>
+      <c r="C59" t="s">
+        <v>226</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>228</v>
+      </c>
+      <c r="B60" t="s">
+        <v>229</v>
+      </c>
+      <c r="C60" t="s">
+        <v>230</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E60" t="s">
+        <v>981</v>
+      </c>
+      <c r="F60" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>986</v>
+      </c>
+      <c r="B61" t="s">
+        <v>987</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" t="s">
+        <v>981</v>
+      </c>
+      <c r="F61" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>232</v>
+      </c>
+      <c r="B62" t="s">
+        <v>233</v>
+      </c>
+      <c r="C62" t="s">
+        <v>234</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>236</v>
+      </c>
+      <c r="B63" t="s">
+        <v>237</v>
+      </c>
+      <c r="C63" t="s">
+        <v>238</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>240</v>
+      </c>
+      <c r="B64" t="s">
+        <v>241</v>
+      </c>
+      <c r="C64" t="s">
+        <v>242</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>244</v>
+      </c>
+      <c r="B65" t="s">
+        <v>245</v>
+      </c>
+      <c r="C65" t="s">
+        <v>246</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E65" t="s">
+        <v>972</v>
+      </c>
+      <c r="F65" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>248</v>
+      </c>
+      <c r="B66" t="s">
+        <v>249</v>
+      </c>
+      <c r="C66" t="s">
+        <v>250</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E66" t="s">
+        <v>981</v>
+      </c>
+      <c r="F66" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>252</v>
+      </c>
+      <c r="B67" t="s">
+        <v>253</v>
+      </c>
+      <c r="C67" t="s">
+        <v>254</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E67" t="s">
+        <v>981</v>
+      </c>
+      <c r="F67" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>256</v>
+      </c>
+      <c r="B68" t="s">
+        <v>257</v>
+      </c>
+      <c r="C68" t="s">
+        <v>258</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E68" t="s">
+        <v>981</v>
+      </c>
+      <c r="F68" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>260</v>
+      </c>
+      <c r="B69" t="s">
+        <v>261</v>
+      </c>
+      <c r="C69" t="s">
+        <v>262</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E69" t="s">
+        <v>972</v>
+      </c>
+      <c r="F69" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>264</v>
+      </c>
+      <c r="B70" t="s">
+        <v>265</v>
+      </c>
+      <c r="C70" t="s">
+        <v>266</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E70" t="s">
+        <v>981</v>
+      </c>
+      <c r="F70" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>268</v>
+      </c>
+      <c r="B71" t="s">
+        <v>269</v>
+      </c>
+      <c r="C71" t="s">
+        <v>270</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E71" t="s">
+        <v>972</v>
+      </c>
+      <c r="F71" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>272</v>
+      </c>
+      <c r="B72" t="s">
+        <v>273</v>
+      </c>
+      <c r="C72" t="s">
+        <v>274</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E72" t="s">
+        <v>972</v>
+      </c>
+      <c r="F72" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>276</v>
+      </c>
+      <c r="B73" t="s">
+        <v>277</v>
+      </c>
+      <c r="C73" t="s">
+        <v>278</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>280</v>
+      </c>
+      <c r="B74" t="s">
+        <v>281</v>
+      </c>
+      <c r="C74" t="s">
+        <v>282</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E74" t="s">
+        <v>972</v>
+      </c>
+      <c r="F74" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>284</v>
+      </c>
+      <c r="B75" t="s">
+        <v>285</v>
+      </c>
+      <c r="C75" t="s">
+        <v>286</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E75" t="s">
+        <v>981</v>
+      </c>
+      <c r="F75" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>288</v>
+      </c>
+      <c r="B76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C76" t="s">
+        <v>290</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>292</v>
+      </c>
+      <c r="B77" t="s">
+        <v>293</v>
+      </c>
+      <c r="C77" t="s">
+        <v>294</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>296</v>
+      </c>
+      <c r="B78" t="s">
+        <v>297</v>
+      </c>
+      <c r="C78" t="s">
+        <v>298</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>300</v>
+      </c>
+      <c r="B79" t="s">
+        <v>301</v>
+      </c>
+      <c r="C79" t="s">
+        <v>302</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>304</v>
+      </c>
+      <c r="B80" t="s">
+        <v>305</v>
+      </c>
+      <c r="C80" t="s">
+        <v>306</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E80" t="s">
+        <v>981</v>
+      </c>
+      <c r="F80" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>308</v>
+      </c>
+      <c r="B81" t="s">
+        <v>309</v>
+      </c>
+      <c r="C81" t="s">
+        <v>310</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>312</v>
+      </c>
+      <c r="B82" t="s">
+        <v>313</v>
+      </c>
+      <c r="C82" t="s">
+        <v>314</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E82" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>316</v>
+      </c>
+      <c r="B83" t="s">
+        <v>317</v>
+      </c>
+      <c r="C83" t="s">
+        <v>318</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E83" t="s">
+        <v>972</v>
+      </c>
+      <c r="F83" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>320</v>
+      </c>
+      <c r="B84" t="s">
+        <v>321</v>
+      </c>
+      <c r="C84" t="s">
+        <v>322</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E84" t="s">
+        <v>972</v>
+      </c>
+      <c r="F84" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>324</v>
+      </c>
+      <c r="B85" t="s">
+        <v>325</v>
+      </c>
+      <c r="C85" t="s">
+        <v>326</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E85" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>328</v>
+      </c>
+      <c r="B86" t="s">
+        <v>329</v>
+      </c>
+      <c r="C86" t="s">
+        <v>330</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>332</v>
+      </c>
+      <c r="B87" t="s">
+        <v>333</v>
+      </c>
+      <c r="C87" t="s">
+        <v>334</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E87" t="s">
+        <v>972</v>
+      </c>
+      <c r="F87" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>336</v>
+      </c>
+      <c r="B88" t="s">
+        <v>337</v>
+      </c>
+      <c r="C88" t="s">
+        <v>338</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>340</v>
+      </c>
+      <c r="B89" t="s">
+        <v>341</v>
+      </c>
+      <c r="C89" t="s">
+        <v>342</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>344</v>
+      </c>
+      <c r="B90" t="s">
+        <v>345</v>
+      </c>
+      <c r="C90" t="s">
+        <v>346</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E90" t="s">
+        <v>981</v>
+      </c>
+      <c r="F90" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>348</v>
+      </c>
+      <c r="B91" t="s">
+        <v>349</v>
+      </c>
+      <c r="C91" t="s">
+        <v>350</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E91" t="s">
+        <v>981</v>
+      </c>
+      <c r="F91" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>352</v>
+      </c>
+      <c r="B92" t="s">
+        <v>353</v>
+      </c>
+      <c r="C92" t="s">
+        <v>354</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E92" t="s">
+        <v>981</v>
+      </c>
+      <c r="F92" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>356</v>
+      </c>
+      <c r="B93" t="s">
+        <v>357</v>
+      </c>
+      <c r="C93" t="s">
+        <v>358</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>360</v>
+      </c>
+      <c r="B94" t="s">
+        <v>361</v>
+      </c>
+      <c r="C94" t="s">
+        <v>362</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E94" t="s">
+        <v>981</v>
+      </c>
+      <c r="F94" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>364</v>
+      </c>
+      <c r="B95" t="s">
+        <v>365</v>
+      </c>
+      <c r="C95" t="s">
+        <v>366</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>368</v>
+      </c>
+      <c r="B96" t="s">
+        <v>369</v>
+      </c>
+      <c r="C96" t="s">
+        <v>370</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E96" t="s">
+        <v>972</v>
+      </c>
+      <c r="F96" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>372</v>
+      </c>
+      <c r="B97" t="s">
+        <v>373</v>
+      </c>
+      <c r="C97" t="s">
+        <v>374</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E97" t="s">
+        <v>972</v>
+      </c>
+      <c r="F97" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>376</v>
+      </c>
+      <c r="B98" t="s">
+        <v>377</v>
+      </c>
+      <c r="C98" t="s">
+        <v>378</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E98" t="s">
+        <v>981</v>
+      </c>
+      <c r="F98" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>380</v>
+      </c>
+      <c r="B99" t="s">
+        <v>381</v>
+      </c>
+      <c r="C99" t="s">
+        <v>382</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E99" t="s">
+        <v>981</v>
+      </c>
+      <c r="F99" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>384</v>
+      </c>
+      <c r="B100" t="s">
+        <v>385</v>
+      </c>
+      <c r="C100" t="s">
+        <v>386</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E100" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B101" t="s">
+        <v>388</v>
+      </c>
+      <c r="C101" t="s">
+        <v>389</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>391</v>
+      </c>
+      <c r="B102" t="s">
+        <v>392</v>
+      </c>
+      <c r="C102" t="s">
+        <v>393</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E102" t="s">
+        <v>981</v>
+      </c>
+      <c r="F102" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>395</v>
+      </c>
+      <c r="B103" t="s">
+        <v>396</v>
+      </c>
+      <c r="C103" t="s">
+        <v>397</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F103" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>399</v>
+      </c>
+      <c r="B104" t="s">
+        <v>400</v>
+      </c>
+      <c r="C104" t="s">
+        <v>401</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>403</v>
+      </c>
+      <c r="B105" t="s">
+        <v>404</v>
+      </c>
+      <c r="C105" t="s">
+        <v>405</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E105" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>407</v>
+      </c>
+      <c r="B106" t="s">
+        <v>408</v>
+      </c>
+      <c r="C106" t="s">
+        <v>409</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E106" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B107" t="s">
+        <v>411</v>
+      </c>
+      <c r="C107" t="s">
+        <v>412</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>414</v>
+      </c>
+      <c r="B108" t="s">
+        <v>415</v>
+      </c>
+      <c r="C108" t="s">
+        <v>416</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>418</v>
+      </c>
+      <c r="B109" t="s">
+        <v>419</v>
+      </c>
+      <c r="C109" t="s">
+        <v>420</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F109" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>422</v>
+      </c>
+      <c r="B110" t="s">
+        <v>423</v>
+      </c>
+      <c r="C110" t="s">
+        <v>424</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>426</v>
+      </c>
+      <c r="B111" t="s">
+        <v>427</v>
+      </c>
+      <c r="C111" t="s">
+        <v>428</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>430</v>
+      </c>
+      <c r="B112" t="s">
+        <v>431</v>
+      </c>
+      <c r="C112" t="s">
+        <v>432</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F112" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>434</v>
+      </c>
+      <c r="B113" t="s">
+        <v>435</v>
+      </c>
+      <c r="C113" t="s">
+        <v>436</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E113" t="s">
+        <v>981</v>
+      </c>
+      <c r="F113" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>438</v>
+      </c>
+      <c r="B114" t="s">
+        <v>439</v>
+      </c>
+      <c r="C114" t="s">
+        <v>440</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E114" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>442</v>
+      </c>
+      <c r="B115" t="s">
+        <v>443</v>
+      </c>
+      <c r="C115" t="s">
+        <v>444</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>446</v>
+      </c>
+      <c r="B116" t="s">
+        <v>447</v>
+      </c>
+      <c r="C116" t="s">
+        <v>448</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>450</v>
+      </c>
+      <c r="B117" t="s">
+        <v>451</v>
+      </c>
+      <c r="C117" t="s">
+        <v>452</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E117" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>454</v>
+      </c>
+      <c r="B118" t="s">
+        <v>455</v>
+      </c>
+      <c r="C118" t="s">
+        <v>456</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E118" t="s">
+        <v>972</v>
+      </c>
+      <c r="F118" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>458</v>
+      </c>
+      <c r="B119" t="s">
+        <v>459</v>
+      </c>
+      <c r="C119" t="s">
+        <v>460</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>999</v>
+      </c>
+      <c r="B120" t="s">
+        <v>462</v>
+      </c>
+      <c r="C120" t="s">
+        <v>463</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E120" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B121" t="s">
+        <v>465</v>
+      </c>
+      <c r="C121" t="s">
+        <v>466</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E121" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D122" s="1"/>
+      <c r="E122" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>468</v>
+      </c>
+      <c r="B123" t="s">
+        <v>469</v>
+      </c>
+      <c r="C123" t="s">
+        <v>470</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>472</v>
+      </c>
+      <c r="B124" t="s">
+        <v>473</v>
+      </c>
+      <c r="C124" t="s">
+        <v>474</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E124" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B125" t="s">
+        <v>476</v>
+      </c>
+      <c r="C125" t="s">
+        <v>477</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E125" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>479</v>
+      </c>
+      <c r="B126" t="s">
+        <v>480</v>
+      </c>
+      <c r="C126" t="s">
+        <v>481</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F126" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>483</v>
+      </c>
+      <c r="B127" t="s">
+        <v>484</v>
+      </c>
+      <c r="C127" t="s">
+        <v>485</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>487</v>
+      </c>
+      <c r="B128" t="s">
+        <v>488</v>
+      </c>
+      <c r="C128" t="s">
+        <v>489</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E128" t="s">
+        <v>972</v>
+      </c>
+      <c r="F128" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>491</v>
+      </c>
+      <c r="B129" t="s">
+        <v>492</v>
+      </c>
+      <c r="C129" t="s">
+        <v>493</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E129" t="s">
+        <v>972</v>
+      </c>
+      <c r="F129" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>495</v>
+      </c>
+      <c r="B130" t="s">
+        <v>496</v>
+      </c>
+      <c r="C130" t="s">
+        <v>497</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E130" t="s">
+        <v>972</v>
+      </c>
+      <c r="F130" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>499</v>
+      </c>
+      <c r="B131" t="s">
+        <v>500</v>
+      </c>
+      <c r="C131" t="s">
+        <v>501</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>503</v>
+      </c>
+      <c r="B132" t="s">
+        <v>504</v>
+      </c>
+      <c r="C132" t="s">
+        <v>505</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F132" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>507</v>
+      </c>
+      <c r="B133" t="s">
+        <v>508</v>
+      </c>
+      <c r="C133" t="s">
+        <v>509</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F133" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B134" t="s">
         <v>186</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="C134" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="D134" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B49" t="s">
-        <v>189</v>
-      </c>
-      <c r="C49" t="s">
-        <v>190</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>192</v>
-      </c>
-      <c r="B50" t="s">
-        <v>193</v>
-      </c>
-      <c r="C50" t="s">
-        <v>194</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>196</v>
-      </c>
-      <c r="B51" t="s">
-        <v>197</v>
-      </c>
-      <c r="C51" t="s">
-        <v>198</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>200</v>
-      </c>
-      <c r="B52" t="s">
-        <v>201</v>
-      </c>
-      <c r="C52" t="s">
-        <v>202</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>204</v>
-      </c>
-      <c r="B53" t="s">
-        <v>205</v>
-      </c>
-      <c r="C53" t="s">
-        <v>206</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>208</v>
-      </c>
-      <c r="B54" t="s">
-        <v>209</v>
-      </c>
-      <c r="C54" t="s">
-        <v>210</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>212</v>
-      </c>
-      <c r="B55" t="s">
-        <v>213</v>
-      </c>
-      <c r="C55" t="s">
-        <v>214</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>216</v>
-      </c>
-      <c r="B56" t="s">
-        <v>217</v>
-      </c>
-      <c r="C56" t="s">
-        <v>218</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>220</v>
-      </c>
-      <c r="B57" t="s">
-        <v>221</v>
-      </c>
-      <c r="C57" t="s">
-        <v>222</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>224</v>
-      </c>
-      <c r="B58" t="s">
-        <v>225</v>
-      </c>
-      <c r="C58" t="s">
-        <v>226</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>228</v>
-      </c>
-      <c r="B59" t="s">
-        <v>229</v>
-      </c>
-      <c r="C59" t="s">
-        <v>230</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>232</v>
-      </c>
-      <c r="B60" t="s">
-        <v>233</v>
-      </c>
-      <c r="C60" t="s">
-        <v>234</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>236</v>
-      </c>
-      <c r="B61" t="s">
-        <v>237</v>
-      </c>
-      <c r="C61" t="s">
-        <v>238</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>240</v>
-      </c>
-      <c r="B62" t="s">
-        <v>241</v>
-      </c>
-      <c r="C62" t="s">
-        <v>242</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>244</v>
-      </c>
-      <c r="B63" t="s">
-        <v>245</v>
-      </c>
-      <c r="C63" t="s">
-        <v>246</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>248</v>
-      </c>
-      <c r="B64" t="s">
-        <v>249</v>
-      </c>
-      <c r="C64" t="s">
-        <v>250</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>252</v>
-      </c>
-      <c r="B65" t="s">
-        <v>253</v>
-      </c>
-      <c r="C65" t="s">
-        <v>254</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>256</v>
-      </c>
-      <c r="B66" t="s">
-        <v>257</v>
-      </c>
-      <c r="C66" t="s">
-        <v>258</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>260</v>
-      </c>
-      <c r="B67" t="s">
-        <v>261</v>
-      </c>
-      <c r="C67" t="s">
-        <v>262</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>264</v>
-      </c>
-      <c r="B68" t="s">
-        <v>265</v>
-      </c>
-      <c r="C68" t="s">
-        <v>266</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>268</v>
-      </c>
-      <c r="B69" t="s">
-        <v>269</v>
-      </c>
-      <c r="C69" t="s">
-        <v>270</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>272</v>
-      </c>
-      <c r="B70" t="s">
-        <v>273</v>
-      </c>
-      <c r="C70" t="s">
-        <v>274</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>276</v>
-      </c>
-      <c r="B71" t="s">
-        <v>277</v>
-      </c>
-      <c r="C71" t="s">
-        <v>278</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>280</v>
-      </c>
-      <c r="B72" t="s">
-        <v>281</v>
-      </c>
-      <c r="C72" t="s">
-        <v>282</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>284</v>
-      </c>
-      <c r="B73" t="s">
-        <v>285</v>
-      </c>
-      <c r="C73" t="s">
-        <v>286</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>288</v>
-      </c>
-      <c r="B74" t="s">
-        <v>289</v>
-      </c>
-      <c r="C74" t="s">
-        <v>290</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>292</v>
-      </c>
-      <c r="B75" t="s">
-        <v>293</v>
-      </c>
-      <c r="C75" t="s">
-        <v>294</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>296</v>
-      </c>
-      <c r="B76" t="s">
-        <v>297</v>
-      </c>
-      <c r="C76" t="s">
-        <v>298</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>300</v>
-      </c>
-      <c r="B77" t="s">
-        <v>301</v>
-      </c>
-      <c r="C77" t="s">
-        <v>302</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>304</v>
-      </c>
-      <c r="B78" t="s">
-        <v>305</v>
-      </c>
-      <c r="C78" t="s">
-        <v>306</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>308</v>
-      </c>
-      <c r="B79" t="s">
-        <v>309</v>
-      </c>
-      <c r="C79" t="s">
-        <v>310</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>312</v>
-      </c>
-      <c r="B80" t="s">
-        <v>313</v>
-      </c>
-      <c r="C80" t="s">
-        <v>314</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>316</v>
-      </c>
-      <c r="B81" t="s">
-        <v>317</v>
-      </c>
-      <c r="C81" t="s">
-        <v>318</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>320</v>
-      </c>
-      <c r="B82" t="s">
-        <v>321</v>
-      </c>
-      <c r="C82" t="s">
-        <v>322</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>324</v>
-      </c>
-      <c r="B83" t="s">
-        <v>325</v>
-      </c>
-      <c r="C83" t="s">
-        <v>326</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>328</v>
-      </c>
-      <c r="B84" t="s">
-        <v>329</v>
-      </c>
-      <c r="C84" t="s">
-        <v>330</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>332</v>
-      </c>
-      <c r="B85" t="s">
-        <v>333</v>
-      </c>
-      <c r="C85" t="s">
-        <v>334</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>336</v>
-      </c>
-      <c r="B86" t="s">
-        <v>337</v>
-      </c>
-      <c r="C86" t="s">
-        <v>338</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>340</v>
-      </c>
-      <c r="B87" t="s">
-        <v>341</v>
-      </c>
-      <c r="C87" t="s">
-        <v>342</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>344</v>
-      </c>
-      <c r="B88" t="s">
-        <v>345</v>
-      </c>
-      <c r="C88" t="s">
-        <v>346</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>348</v>
-      </c>
-      <c r="B89" t="s">
-        <v>349</v>
-      </c>
-      <c r="C89" t="s">
-        <v>350</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>352</v>
-      </c>
-      <c r="B90" t="s">
-        <v>353</v>
-      </c>
-      <c r="C90" t="s">
-        <v>354</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>356</v>
-      </c>
-      <c r="B91" t="s">
-        <v>357</v>
-      </c>
-      <c r="C91" t="s">
-        <v>358</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>360</v>
-      </c>
-      <c r="B92" t="s">
-        <v>361</v>
-      </c>
-      <c r="C92" t="s">
-        <v>362</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>364</v>
-      </c>
-      <c r="B93" t="s">
-        <v>365</v>
-      </c>
-      <c r="C93" t="s">
-        <v>366</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>368</v>
-      </c>
-      <c r="B94" t="s">
-        <v>369</v>
-      </c>
-      <c r="C94" t="s">
-        <v>370</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>372</v>
-      </c>
-      <c r="B95" t="s">
-        <v>373</v>
-      </c>
-      <c r="C95" t="s">
-        <v>374</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>376</v>
-      </c>
-      <c r="B96" t="s">
-        <v>377</v>
-      </c>
-      <c r="C96" t="s">
-        <v>378</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>380</v>
-      </c>
-      <c r="B97" t="s">
-        <v>381</v>
-      </c>
-      <c r="C97" t="s">
-        <v>382</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>384</v>
-      </c>
-      <c r="B98" t="s">
-        <v>385</v>
-      </c>
-      <c r="C98" t="s">
-        <v>386</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>388</v>
-      </c>
-      <c r="B99" t="s">
-        <v>389</v>
-      </c>
-      <c r="C99" t="s">
-        <v>390</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>392</v>
-      </c>
-      <c r="B100" t="s">
-        <v>393</v>
-      </c>
-      <c r="C100" t="s">
-        <v>394</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>396</v>
-      </c>
-      <c r="B101" t="s">
-        <v>397</v>
-      </c>
-      <c r="C101" t="s">
-        <v>398</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>400</v>
-      </c>
-      <c r="B102" t="s">
-        <v>401</v>
-      </c>
-      <c r="C102" t="s">
-        <v>402</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>404</v>
-      </c>
-      <c r="B103" t="s">
-        <v>405</v>
-      </c>
-      <c r="C103" t="s">
-        <v>406</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>408</v>
-      </c>
-      <c r="B104" t="s">
-        <v>409</v>
-      </c>
-      <c r="C104" t="s">
-        <v>410</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>412</v>
-      </c>
-      <c r="B105" t="s">
-        <v>413</v>
-      </c>
-      <c r="C105" t="s">
-        <v>414</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>416</v>
-      </c>
-      <c r="B106" t="s">
-        <v>417</v>
-      </c>
-      <c r="C106" t="s">
-        <v>418</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>420</v>
-      </c>
-      <c r="B107" t="s">
-        <v>421</v>
-      </c>
-      <c r="C107" t="s">
-        <v>422</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>424</v>
-      </c>
-      <c r="B108" t="s">
-        <v>425</v>
-      </c>
-      <c r="C108" t="s">
-        <v>426</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>428</v>
-      </c>
-      <c r="B109" t="s">
-        <v>429</v>
-      </c>
-      <c r="C109" t="s">
-        <v>430</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>432</v>
-      </c>
-      <c r="B110" t="s">
-        <v>433</v>
-      </c>
-      <c r="C110" t="s">
-        <v>434</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>436</v>
-      </c>
-      <c r="B111" t="s">
-        <v>437</v>
-      </c>
-      <c r="C111" t="s">
-        <v>438</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>440</v>
-      </c>
-      <c r="B112" t="s">
-        <v>441</v>
-      </c>
-      <c r="C112" t="s">
-        <v>442</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>444</v>
-      </c>
-      <c r="B113" t="s">
-        <v>445</v>
-      </c>
-      <c r="C113" t="s">
-        <v>446</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>448</v>
-      </c>
-      <c r="B114" t="s">
-        <v>449</v>
-      </c>
-      <c r="C114" t="s">
-        <v>450</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>452</v>
-      </c>
-      <c r="B115" t="s">
-        <v>453</v>
-      </c>
-      <c r="C115" t="s">
-        <v>454</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>456</v>
-      </c>
-      <c r="B116" t="s">
-        <v>457</v>
-      </c>
-      <c r="C116" t="s">
-        <v>458</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>460</v>
-      </c>
-      <c r="B117" t="s">
-        <v>461</v>
-      </c>
-      <c r="C117" t="s">
-        <v>462</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>464</v>
-      </c>
-      <c r="B118" t="s">
-        <v>465</v>
-      </c>
-      <c r="C118" t="s">
-        <v>466</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>468</v>
-      </c>
-      <c r="B119" t="s">
-        <v>469</v>
-      </c>
-      <c r="C119" t="s">
-        <v>470</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>472</v>
-      </c>
-      <c r="B120" t="s">
-        <v>473</v>
-      </c>
-      <c r="C120" t="s">
-        <v>474</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>476</v>
-      </c>
-      <c r="B121" t="s">
-        <v>477</v>
-      </c>
-      <c r="C121" t="s">
-        <v>478</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>480</v>
-      </c>
-      <c r="B122" t="s">
-        <v>481</v>
-      </c>
-      <c r="C122" t="s">
-        <v>482</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>484</v>
-      </c>
-      <c r="B123" t="s">
-        <v>485</v>
-      </c>
-      <c r="C123" t="s">
-        <v>486</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>488</v>
-      </c>
-      <c r="B124" t="s">
-        <v>489</v>
-      </c>
-      <c r="C124" t="s">
-        <v>490</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>492</v>
-      </c>
-      <c r="B125" t="s">
-        <v>493</v>
-      </c>
-      <c r="C125" t="s">
-        <v>494</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>496</v>
-      </c>
-      <c r="B126" t="s">
-        <v>497</v>
-      </c>
-      <c r="C126" t="s">
-        <v>498</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>500</v>
-      </c>
-      <c r="B127" t="s">
-        <v>501</v>
-      </c>
-      <c r="C127" t="s">
-        <v>502</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>504</v>
-      </c>
-      <c r="B128" t="s">
-        <v>505</v>
-      </c>
-      <c r="C128" t="s">
-        <v>506</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>508</v>
-      </c>
-      <c r="B129" t="s">
-        <v>509</v>
-      </c>
-      <c r="C129" t="s">
-        <v>510</v>
-      </c>
-      <c r="D129" s="1" t="s">
+      <c r="E134" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B135" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="C135" t="s">
         <v>512</v>
       </c>
-      <c r="B130" t="s">
+      <c r="D135" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C130" t="s">
+      <c r="E135" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>514</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="B136" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="C136" t="s">
         <v>516</v>
       </c>
-      <c r="B131" t="s">
+      <c r="D136" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C131" t="s">
+      <c r="E136" t="s">
+        <v>972</v>
+      </c>
+      <c r="F136" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>518</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="B137" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="C137" t="s">
         <v>520</v>
       </c>
-      <c r="B132" t="s">
+      <c r="D137" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C132" t="s">
+      <c r="E137" t="s">
+        <v>972</v>
+      </c>
+      <c r="F137" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>522</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="B138" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="C138" t="s">
         <v>524</v>
       </c>
-      <c r="B133" t="s">
+      <c r="D138" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="C133" t="s">
+      <c r="E138" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>526</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="B139" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="C139" t="s">
         <v>528</v>
       </c>
-      <c r="B134" t="s">
+      <c r="D139" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C134" t="s">
+      <c r="E139" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>530</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="B140" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="C140" t="s">
         <v>532</v>
       </c>
-      <c r="B135" t="s">
+      <c r="D140" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="C135" t="s">
+      <c r="E140" t="s">
+        <v>972</v>
+      </c>
+      <c r="F140" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>534</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="B141" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="C141" t="s">
         <v>536</v>
       </c>
-      <c r="B136" t="s">
+      <c r="D141" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C136" t="s">
+      <c r="E141" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F141" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>538</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="B142" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="C142" t="s">
         <v>540</v>
       </c>
-      <c r="B137" t="s">
+      <c r="D142" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C137" t="s">
+      <c r="E142" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>542</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="B143" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="C143" t="s">
         <v>544</v>
       </c>
-      <c r="B138" t="s">
+      <c r="D143" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C138" t="s">
+      <c r="E143" t="s">
+        <v>981</v>
+      </c>
+      <c r="F143" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>546</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="B144" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="C144" t="s">
         <v>548</v>
       </c>
-      <c r="B139" t="s">
+      <c r="D144" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="C139" t="s">
+      <c r="E144" t="s">
+        <v>972</v>
+      </c>
+      <c r="F144" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>550</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="B145" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="C145" t="s">
         <v>552</v>
       </c>
-      <c r="B140" t="s">
+      <c r="D145" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="C140" t="s">
+      <c r="E145" t="s">
+        <v>972</v>
+      </c>
+      <c r="F145" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>554</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="B146" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="C146" t="s">
         <v>556</v>
       </c>
-      <c r="B141" t="s">
+      <c r="D146" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="C141" t="s">
+      <c r="E146" t="s">
+        <v>972</v>
+      </c>
+      <c r="F146" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>558</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="B147" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="C147" t="s">
         <v>560</v>
       </c>
-      <c r="B142" t="s">
+      <c r="D147" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="C142" t="s">
+      <c r="E147" t="s">
+        <v>981</v>
+      </c>
+      <c r="F147" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B148" t="s">
         <v>562</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="C148" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="D148" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B143" t="s">
+      <c r="E148" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>565</v>
       </c>
-      <c r="C143" t="s">
+      <c r="B149" t="s">
         <v>566</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="C149" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="D149" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B144" t="s">
+      <c r="E149" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>569</v>
       </c>
-      <c r="C144" t="s">
+      <c r="B150" t="s">
         <v>570</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="C150" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="D150" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B145" t="s">
+      <c r="E150" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>573</v>
       </c>
-      <c r="C145" t="s">
+      <c r="B151" t="s">
         <v>574</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="C151" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="D151" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="B146" t="s">
+      <c r="E151" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>577</v>
       </c>
-      <c r="C146" t="s">
+      <c r="B152" t="s">
         <v>578</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="C152" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="D152" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B147" t="s">
+      <c r="E152" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>581</v>
       </c>
-      <c r="C147" t="s">
+      <c r="B153" t="s">
         <v>582</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="C153" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="D153" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="B148" t="s">
+      <c r="E153" t="s">
+        <v>981</v>
+      </c>
+      <c r="F153" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>585</v>
       </c>
-      <c r="C148" t="s">
+      <c r="B154" t="s">
         <v>586</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="C154" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="D154" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B149" t="s">
+      <c r="E154" t="s">
+        <v>972</v>
+      </c>
+      <c r="F154" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>589</v>
       </c>
-      <c r="C149" t="s">
+      <c r="B155" t="s">
         <v>590</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="C155" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="D155" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="B150" t="s">
+      <c r="E155" t="s">
+        <v>972</v>
+      </c>
+      <c r="F155" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>593</v>
       </c>
-      <c r="C150" t="s">
+      <c r="B156" t="s">
         <v>594</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="C156" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="D156" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="B151" t="s">
+      <c r="E156" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>597</v>
       </c>
-      <c r="C151" t="s">
+      <c r="B157" t="s">
         <v>598</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="C157" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="D157" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B152" t="s">
+      <c r="E157" t="s">
+        <v>972</v>
+      </c>
+      <c r="F157" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>601</v>
       </c>
-      <c r="C152" t="s">
+      <c r="B158" t="s">
         <v>602</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="C158" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="D158" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B153" t="s">
+      <c r="E158" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>605</v>
       </c>
-      <c r="C153" t="s">
+      <c r="B159" t="s">
         <v>606</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="C159" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="D159" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B154" t="s">
+      <c r="E159" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>609</v>
       </c>
-      <c r="C154" t="s">
+      <c r="B160" t="s">
         <v>610</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="C160" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="D160" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B155" t="s">
+      <c r="E160" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F160" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>613</v>
       </c>
-      <c r="C155" t="s">
+      <c r="B161" t="s">
         <v>614</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="C161" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="D161" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B156" t="s">
+      <c r="E161" t="s">
+        <v>981</v>
+      </c>
+      <c r="F161" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>617</v>
       </c>
-      <c r="C156" t="s">
+      <c r="B162" t="s">
         <v>618</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="C162" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="D162" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B157" t="s">
+      <c r="E162" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>621</v>
       </c>
-      <c r="C157" t="s">
+      <c r="B163" t="s">
         <v>622</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="C163" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="D163" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="B158" t="s">
+      <c r="E163" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>625</v>
       </c>
-      <c r="C158" t="s">
+      <c r="B164" t="s">
         <v>626</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="C164" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="D164" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B159" t="s">
+      <c r="E164" t="s">
+        <v>981</v>
+      </c>
+      <c r="F164" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>629</v>
       </c>
-      <c r="C159" t="s">
+      <c r="B165" t="s">
         <v>630</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="C165" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="D165" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B160" t="s">
+      <c r="E165" t="s">
+        <v>972</v>
+      </c>
+      <c r="F165" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>633</v>
       </c>
-      <c r="C160" t="s">
+      <c r="B166" t="s">
         <v>634</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="C166" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="D166" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="B161" t="s">
+      <c r="E166" t="s">
+        <v>972</v>
+      </c>
+      <c r="F166" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>637</v>
       </c>
-      <c r="C161" t="s">
+      <c r="B167" t="s">
         <v>638</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="C167" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="D167" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B162" t="s">
+      <c r="E167" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>641</v>
       </c>
-      <c r="C162" t="s">
+      <c r="B168" t="s">
         <v>642</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="C168" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="D168" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B163" t="s">
+      <c r="E168" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>645</v>
       </c>
-      <c r="C163" t="s">
+      <c r="B169" t="s">
         <v>646</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="C169" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="D169" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B164" t="s">
+      <c r="E169" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>649</v>
       </c>
-      <c r="C164" t="s">
+      <c r="B170" t="s">
         <v>650</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="C170" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="D170" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B165" t="s">
+      <c r="E170" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>653</v>
       </c>
-      <c r="C165" t="s">
+      <c r="B171" t="s">
         <v>654</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="C171" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="D171" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B166" t="s">
+      <c r="E171" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>657</v>
       </c>
-      <c r="C166" t="s">
+      <c r="B172" t="s">
         <v>658</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="C172" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="D172" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B167" t="s">
+      <c r="E172" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>661</v>
       </c>
-      <c r="C167" t="s">
+      <c r="B173" t="s">
         <v>662</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="C173" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="D173" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B168" t="s">
+      <c r="E173" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B174" t="s">
         <v>665</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C174" t="s">
         <v>666</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="E174" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>668</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B175" t="s">
         <v>669</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C175" t="s">
         <v>670</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="E175" t="s">
+        <v>981</v>
+      </c>
+      <c r="F175" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>672</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B176" t="s">
         <v>673</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C176" t="s">
         <v>674</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D176" s="1" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="E176" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>676</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B177" t="s">
         <v>677</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C177" t="s">
         <v>678</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="E177" t="s">
+        <v>981</v>
+      </c>
+      <c r="F177" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>680</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B178" t="s">
         <v>681</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C178" t="s">
         <v>682</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="E178" t="s">
+        <v>981</v>
+      </c>
+      <c r="F178" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>684</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B179" t="s">
         <v>685</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C179" t="s">
         <v>686</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D179" s="1" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="E179" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>688</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B180" t="s">
         <v>689</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C180" t="s">
         <v>690</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="E180" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>692</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B181" t="s">
         <v>693</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C181" t="s">
         <v>694</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D181" s="1" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="E181" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F181" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>696</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B182" t="s">
         <v>697</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C182" t="s">
         <v>698</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="E182" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F182" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>700</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B183" t="s">
         <v>701</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C183" t="s">
         <v>702</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="E183" t="s">
+        <v>981</v>
+      </c>
+      <c r="F183" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>704</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B184" t="s">
         <v>705</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C184" t="s">
         <v>706</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="E184" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>973</v>
+      </c>
+      <c r="B185" t="s">
         <v>708</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C185" t="s">
         <v>709</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D185" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="E185" t="s">
+        <v>972</v>
+      </c>
+      <c r="F185" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="B186" t="s">
         <v>712</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C186" t="s">
         <v>713</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D186" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="E186" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F186" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B187" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="C187" t="s">
         <v>716</v>
       </c>
-      <c r="B181" t="s">
+      <c r="D187" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="C181" t="s">
+      <c r="E187" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>718</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="B188" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="C188" t="s">
         <v>720</v>
       </c>
-      <c r="B182" t="s">
+      <c r="D188" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="C182" t="s">
+      <c r="E188" t="s">
+        <v>972</v>
+      </c>
+      <c r="F188" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>988</v>
+      </c>
+      <c r="B189" t="s">
         <v>722</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="C189" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="D189" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="B183" t="s">
+      <c r="E189" t="s">
+        <v>981</v>
+      </c>
+      <c r="F189" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>725</v>
       </c>
-      <c r="C183" t="s">
+      <c r="B190" t="s">
         <v>726</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="C190" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="D190" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B184" t="s">
+      <c r="E190" t="s">
+        <v>972</v>
+      </c>
+      <c r="F190" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>729</v>
       </c>
-      <c r="C184" t="s">
+      <c r="B191" t="s">
         <v>730</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="C191" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="D191" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="B185" t="s">
+      <c r="E191" t="s">
+        <v>981</v>
+      </c>
+      <c r="F191" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>733</v>
       </c>
-      <c r="C185" t="s">
+      <c r="B192" t="s">
         <v>734</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="C192" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="D192" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="B186" t="s">
+      <c r="E192" t="s">
+        <v>981</v>
+      </c>
+      <c r="F192" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>989</v>
+      </c>
+      <c r="B193" t="s">
         <v>737</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C193" t="s">
         <v>738</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D193" s="1" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="E193" t="s">
+        <v>981</v>
+      </c>
+      <c r="F193" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>740</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B194" t="s">
         <v>741</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C194" t="s">
         <v>742</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D194" s="1" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="E194" t="s">
+        <v>981</v>
+      </c>
+      <c r="F194" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>744</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B195" t="s">
         <v>745</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C195" t="s">
         <v>746</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D195" s="1" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="E195" t="s">
+        <v>981</v>
+      </c>
+      <c r="F195" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>748</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B196" t="s">
         <v>749</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C196" t="s">
         <v>750</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="E196" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>752</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B197" t="s">
         <v>753</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C197" t="s">
         <v>754</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="D197" s="1" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="E197" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>756</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B198" t="s">
         <v>757</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C198" t="s">
         <v>758</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="E198" t="s">
+        <v>972</v>
+      </c>
+      <c r="F198" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>760</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B199" t="s">
         <v>761</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C199" t="s">
         <v>762</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="D199" s="1" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="E199" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>764</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B200" t="s">
         <v>765</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C200" t="s">
         <v>766</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D200" s="1" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="E200" t="s">
+        <v>972</v>
+      </c>
+      <c r="F200" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>768</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B201" t="s">
         <v>769</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C201" t="s">
         <v>770</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="E201" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>772</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B202" t="s">
         <v>773</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C202" t="s">
         <v>774</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D202" s="1" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="E202" t="s">
+        <v>972</v>
+      </c>
+      <c r="F202" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>776</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B203" t="s">
         <v>777</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C203" t="s">
         <v>778</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="D203" s="1" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="E203" t="s">
+        <v>972</v>
+      </c>
+      <c r="F203" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>780</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B204" t="s">
         <v>781</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C204" t="s">
         <v>782</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D204" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="E204" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>990</v>
+      </c>
+      <c r="B205" t="s">
+        <v>991</v>
+      </c>
+      <c r="D205" s="1"/>
+      <c r="E205" t="s">
+        <v>981</v>
+      </c>
+      <c r="F205" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>784</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B206" t="s">
         <v>785</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C206" t="s">
         <v>786</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="D206" s="1" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="E206" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F206" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>788</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B207" t="s">
         <v>789</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C207" t="s">
         <v>790</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D207" s="1" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="E207" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F207" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>792</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B208" t="s">
         <v>793</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C208" t="s">
         <v>794</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D208" s="1" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="E208" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>796</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B209" t="s">
         <v>797</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C209" t="s">
         <v>798</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="D209" s="1" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="E209" t="s">
+        <v>972</v>
+      </c>
+      <c r="F209" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>800</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B210" t="s">
         <v>801</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C210" t="s">
         <v>802</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="D210" s="1" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="E210" t="s">
+        <v>972</v>
+      </c>
+      <c r="F210" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>804</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B211" t="s">
         <v>805</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C211" t="s">
         <v>806</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="D211" s="1" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>808</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B212" t="s">
         <v>809</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C212" t="s">
         <v>810</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="D212" s="1" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="E212" t="s">
+        <v>972</v>
+      </c>
+      <c r="F212" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>812</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B213" t="s">
         <v>813</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C213" t="s">
         <v>814</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="D213" s="1" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="E213" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F213" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>816</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B214" t="s">
         <v>817</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C214" t="s">
         <v>818</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="D214" s="1" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="E214" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>820</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B215" t="s">
         <v>821</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C215" t="s">
         <v>822</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="D215" s="1" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="E215" t="s">
+        <v>972</v>
+      </c>
+      <c r="F215" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>994</v>
+      </c>
+      <c r="B216" t="s">
         <v>824</v>
       </c>
-      <c r="B208" t="s">
+      <c r="C216" t="s">
         <v>825</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D216" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="E216" t="s">
+        <v>981</v>
+      </c>
+      <c r="F216" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="B217" t="s">
         <v>828</v>
       </c>
-      <c r="B209" t="s">
+      <c r="C217" t="s">
         <v>829</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D217" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="D209" s="1" t="s">
+      <c r="E217" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="B218" t="s">
         <v>832</v>
       </c>
-      <c r="B210" t="s">
+      <c r="C218" t="s">
         <v>833</v>
       </c>
-      <c r="C210" t="s">
+      <c r="D218" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="E218" t="s">
+        <v>972</v>
+      </c>
+      <c r="F218" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="B219" t="s">
         <v>836</v>
       </c>
-      <c r="B211" t="s">
+      <c r="C219" t="s">
         <v>837</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D219" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="E219" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F219" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="B220" t="s">
         <v>840</v>
       </c>
-      <c r="B212" t="s">
+      <c r="C220" t="s">
         <v>841</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D220" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="E220" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B221" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="C221" t="s">
         <v>844</v>
       </c>
-      <c r="B213" t="s">
+      <c r="D221" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="C213" t="s">
+      <c r="E221" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B222" t="s">
         <v>846</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="C222" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="D222" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="B214" t="s">
+      <c r="E222" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>849</v>
       </c>
-      <c r="C214" t="s">
+      <c r="B223" t="s">
         <v>850</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="C223" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="D223" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="B215" t="s">
+      <c r="E223" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>974</v>
+      </c>
+      <c r="B224" t="s">
         <v>853</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C224" t="s">
         <v>854</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="D224" s="1" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="E224" t="s">
+        <v>972</v>
+      </c>
+      <c r="F224" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>856</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B225" t="s">
         <v>857</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C225" t="s">
         <v>858</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="D225" s="1" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="E225" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>860</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B226" t="s">
         <v>861</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C226" t="s">
         <v>862</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="D226" s="1" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="E226" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>864</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B227" t="s">
         <v>865</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C227" t="s">
         <v>866</v>
       </c>
-      <c r="D218" s="1" t="s">
+      <c r="D227" s="1" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="E227" t="s">
+        <v>972</v>
+      </c>
+      <c r="F227" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>868</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B228" t="s">
         <v>869</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C228" t="s">
         <v>870</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="D228" s="1" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="E228" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>872</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B229" t="s">
         <v>873</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C229" t="s">
         <v>874</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="D229" s="1" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="E229" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>876</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B230" t="s">
         <v>877</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C230" t="s">
         <v>878</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="D230" s="1" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="E230" t="s">
+        <v>981</v>
+      </c>
+      <c r="F230" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>880</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B231" t="s">
         <v>881</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C231" t="s">
         <v>882</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="D231" s="1" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="E231" t="s">
+        <v>972</v>
+      </c>
+      <c r="F231" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>884</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B232" t="s">
         <v>885</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C232" t="s">
         <v>886</v>
       </c>
-      <c r="D223" s="1" t="s">
+      <c r="D232" s="1" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="E232" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>888</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B233" t="s">
         <v>889</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C233" t="s">
         <v>890</v>
       </c>
-      <c r="D224" s="1" t="s">
+      <c r="D233" s="1" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="E233" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>892</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B234" t="s">
         <v>893</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C234" t="s">
         <v>894</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="D234" s="1" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="E234" t="s">
+        <v>981</v>
+      </c>
+      <c r="F234" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>896</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B235" t="s">
         <v>897</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C235" t="s">
         <v>898</v>
       </c>
-      <c r="D226" s="1" t="s">
+      <c r="D235" s="1" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="E235" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>900</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B236" t="s">
         <v>901</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C236" t="s">
         <v>902</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="D236" s="1" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="E236" t="s">
+        <v>972</v>
+      </c>
+      <c r="F236" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
         <v>904</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B237" t="s">
         <v>905</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C237" t="s">
         <v>906</v>
       </c>
-      <c r="D228" s="1" t="s">
+      <c r="D237" s="1" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="E237" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>908</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B238" t="s">
         <v>909</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C238" t="s">
         <v>910</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="D238" s="1" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="E238" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>912</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B239" t="s">
         <v>913</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C239" t="s">
         <v>914</v>
       </c>
-      <c r="D230" s="1" t="s">
+      <c r="D239" s="1" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="E239" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F239" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>916</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B240" t="s">
         <v>917</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C240" t="s">
         <v>918</v>
       </c>
-      <c r="D231" s="1" t="s">
+      <c r="D240" s="1" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="E240" t="s">
+        <v>981</v>
+      </c>
+      <c r="F240" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
         <v>920</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B241" t="s">
         <v>921</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C241" t="s">
         <v>922</v>
       </c>
-      <c r="D232" s="1" t="s">
+      <c r="D241" s="1" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="E241" t="s">
+        <v>981</v>
+      </c>
+      <c r="F241" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
         <v>924</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B242" t="s">
         <v>925</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C242" t="s">
         <v>926</v>
       </c>
-      <c r="D233" s="1" t="s">
+      <c r="D242" s="1" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="E242" t="s">
+        <v>981</v>
+      </c>
+      <c r="F242" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
         <v>928</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B243" t="s">
         <v>929</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C243" t="s">
         <v>930</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="D243" s="1" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="E243" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
         <v>932</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B244" t="s">
         <v>933</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C244" t="s">
         <v>934</v>
       </c>
-      <c r="D235" s="1" t="s">
+      <c r="D244" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="E244" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>995</v>
+      </c>
+      <c r="B245" t="s">
         <v>936</v>
       </c>
-      <c r="B236" t="s">
+      <c r="C245" t="s">
         <v>937</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D245" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="D236" s="1" t="s">
+      <c r="E245" t="s">
+        <v>981</v>
+      </c>
+      <c r="F245" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B246" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="C246" t="s">
         <v>940</v>
       </c>
-      <c r="B237" t="s">
+      <c r="D246" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="C237" t="s">
+      <c r="E246" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
         <v>942</v>
       </c>
-      <c r="D237" s="1" t="s">
+      <c r="B247" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="C247" t="s">
         <v>944</v>
       </c>
-      <c r="B238" t="s">
+      <c r="D247" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="C238" t="s">
+      <c r="E247" t="s">
+        <v>981</v>
+      </c>
+      <c r="F247" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
         <v>946</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="B248" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+      <c r="C248" t="s">
         <v>948</v>
       </c>
-      <c r="B239" t="s">
+      <c r="D248" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="C239" t="s">
+      <c r="E248" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
         <v>950</v>
       </c>
-      <c r="D239" s="1" t="s">
+      <c r="B249" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+      <c r="C249" t="s">
         <v>952</v>
       </c>
-      <c r="B240" t="s">
+      <c r="D249" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="C240" t="s">
+      <c r="E249" t="s">
+        <v>972</v>
+      </c>
+      <c r="F249" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>954</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="B250" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="C250" t="s">
         <v>956</v>
       </c>
-      <c r="B241" t="s">
+      <c r="D250" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="C241" t="s">
+      <c r="E250" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>958</v>
       </c>
-      <c r="D241" s="1" t="s">
+      <c r="B251" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+      <c r="C251" t="s">
         <v>960</v>
       </c>
-      <c r="B242" t="s">
+      <c r="D251" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="C242" t="s">
+      <c r="E251" t="s">
+        <v>972</v>
+      </c>
+      <c r="F251" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>962</v>
       </c>
-      <c r="D242" s="1" t="s">
+      <c r="B252" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+      <c r="C252" t="s">
         <v>964</v>
       </c>
-      <c r="B243" t="s">
+      <c r="D252" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="C243" t="s">
-        <v>966</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>968</v>
-      </c>
-      <c r="B244" t="s">
-        <v>969</v>
-      </c>
-      <c r="C244" t="s">
-        <v>970</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="E252" t="s">
         <v>972</v>
       </c>
-      <c r="B245" t="s">
-        <v>973</v>
-      </c>
-      <c r="C245" t="s">
-        <v>974</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>976</v>
-      </c>
-      <c r="B246" t="s">
+      <c r="F252" t="s">
         <v>977</v>
-      </c>
-      <c r="C246" t="s">
-        <v>978</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>980</v>
-      </c>
-      <c r="B247" t="s">
-        <v>981</v>
-      </c>
-      <c r="C247" t="s">
-        <v>982</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>984</v>
-      </c>
-      <c r="B248" t="s">
-        <v>985</v>
-      </c>
-      <c r="C248" t="s">
-        <v>986</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>987</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>